--- a/improvised_data_train.xlsx
+++ b/improvised_data_train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\us-elections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9789D70F-41D1-4470-9F81-6F66890EDA6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A691FF-B617-4385-9E70-44BA098B8C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{11638F64-D688-4D4B-BC49-81498E44C931}"/>
   </bookViews>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37B1891-FF21-4CEA-8583-078D1DC3CDB8}">
   <dimension ref="A1:I2000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A851" workbookViewId="0">
+      <selection activeCell="A570" sqref="A570:H870"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
